--- a/fpga design calcs.xlsx
+++ b/fpga design calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\fpga_blaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFE9ADE-C1B3-43AF-89BE-4BB8DC040245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7C4A94-914A-44AE-920A-BBC1F63E7B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-3908" windowWidth="28996" windowHeight="15795" xr2:uid="{F2BA9C56-361E-4D49-A665-A530FCF06EC8}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="PSRAM access" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="152">
   <si>
     <t>Driving</t>
   </si>
@@ -484,6 +485,15 @@
   </si>
   <si>
     <t>Bit Shift</t>
+  </si>
+  <si>
+    <t>v/dn</t>
+  </si>
+  <si>
+    <t>dn/a</t>
+  </si>
+  <si>
+    <t>3MHZ 4CH 12BIT 4MSample TRACE BUFFER, 800x480 XVGA</t>
   </si>
 </sst>
 </file>
@@ -931,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501F3813-4D6C-4688-8A35-BD7C3FDD40C7}">
-  <dimension ref="A2:O92"/>
+  <dimension ref="A2:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1277,7 @@
         <v>40</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32" si="0">POWER(2,K32)*0.2005/(205*3000000)*100</f>
+        <f>POWER(2,K32)*0.2005/(205*3000000)*100</f>
         <v>35845.866889282603</v>
       </c>
     </row>
@@ -1333,27 +1343,27 @@
         <v>16</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L42" si="1">POWER(2,K39)*200.5/205/3</f>
+        <f>POWER(2,K39)*200.5/205/3</f>
         <v>21365.801626016259</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K40">
-        <f t="shared" ref="K40:K42" si="2">K39+1</f>
+        <f>K39+1</f>
         <v>17</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f>POWER(2,K40)*200.5/205/3</f>
         <v>42731.603252032517</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f>K40+1</f>
         <v>18</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f>POWER(2,K41)*200.5/205/3</f>
         <v>85463.206504065034</v>
       </c>
     </row>
@@ -1368,11 +1378,11 @@
         <v>800</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f>K41+1</f>
         <v>19</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f>POWER(2,K42)*200.5/205/3</f>
         <v>170926.41300813007</v>
       </c>
     </row>
@@ -1502,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E59" si="3">LOG(D54,2)</f>
+        <f t="shared" ref="E54:E59" si="0">LOG(D54,2)</f>
         <v>2.3219280948873622</v>
       </c>
       <c r="H54" s="9">
@@ -1525,7 +1535,7 @@
         <v>200</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.6438561897747244</v>
       </c>
       <c r="H55" s="11">
@@ -1552,7 +1562,7 @@
         <v>4.9874999999999998</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.3183168413349837</v>
       </c>
     </row>
@@ -1561,7 +1571,7 @@
         <v>205</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.6794800995054464</v>
       </c>
       <c r="H57">
@@ -1575,7 +1585,7 @@
         <v>40</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.3219280948873626</v>
       </c>
       <c r="H58">
@@ -1597,7 +1607,7 @@
         <v>41.10275689223058</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.3611632581704631</v>
       </c>
       <c r="H59" s="1">
@@ -1817,6 +1827,9 @@
       <c r="F79">
         <v>48</v>
       </c>
+      <c r="L79">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
@@ -1825,22 +1838,32 @@
       <c r="F80">
         <v>390</v>
       </c>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>146</v>
       </c>
       <c r="F81">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F82">
         <f>POWER(2,F81)/(F79*F80)</f>
         <v>57358.003418803419</v>
       </c>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f>PRODUCT(L79:L81)</f>
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>87</v>
       </c>
@@ -1848,29 +1871,41 @@
         <v>0.20050000000000001</v>
       </c>
     </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>91</v>
       </c>
       <c r="F85">
         <v>205</v>
       </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="N85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>147</v>
       </c>
       <c r="F86">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>205</v>
+      </c>
+      <c r="N86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F87">
         <f>POWER(2,F86)*F85*F84</f>
         <v>42088.959999999999</v>
       </c>
     </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>148</v>
       </c>
@@ -1878,7 +1913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F91">
         <f>POWER(2,F90)*F85*F84/(F79*F80)</f>
         <v>36836.833367521365</v>
@@ -1892,11 +1927,511 @@
       <c r="I91">
         <v>35915</v>
       </c>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F92">
         <f>LOG(F91,2)</f>
         <v>15.168861426827512</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" t="str">
+        <f>DEC2HEX(CODE(MID($M$91,L92,1)),2)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <f>L92+1</f>
+        <v>2</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" ref="M93:M141" si="1">DEC2HEX(CODE(MID($M$91,L93,1)),2)</f>
+        <v>4D</v>
+      </c>
+    </row>
+    <row r="94" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <f t="shared" ref="L94:L127" si="2">L93+1</f>
+        <v>3</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="1"/>
+        <v>5A</v>
+      </c>
+    </row>
+    <row r="96" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="1"/>
+        <v>4D</v>
+      </c>
+    </row>
+    <row r="109" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="1"/>
+        <v>6D</v>
+      </c>
+    </row>
+    <row r="112" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="1"/>
+        <v>6C</v>
+      </c>
+    </row>
+    <row r="114" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <f t="shared" ref="L128:L141" si="3">L127+1</f>
+        <v>37</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+    </row>
+    <row r="129" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3042,11 +3577,11 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" ref="B29" si="16">B28+1</f>
+        <f>B28+1</f>
         <v>14</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29" si="17">C28-2</f>
+        <f>C28-2</f>
         <v>-3</v>
       </c>
       <c r="D29">
@@ -3094,11 +3629,11 @@
         <v>3892314112</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29" si="18">P28-2</f>
+        <f>P28-2</f>
         <v>-2</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29" si="19">Q28-2</f>
+        <f>Q28-2</f>
         <v>-3</v>
       </c>
       <c r="S29" t="str">
@@ -3215,7 +3750,7 @@
         <v>92</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C16" si="0">SUM(E14:BF14)</f>
+        <f>SUM(E14:BF14)</f>
         <v>12</v>
       </c>
       <c r="D14" s="6">
@@ -3247,7 +3782,7 @@
         <v>93</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>SUM(E15:BF15)</f>
         <v>12</v>
       </c>
       <c r="D15" s="6">
@@ -3281,7 +3816,7 @@
         <v>94</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>SUM(E16:BF16)</f>
         <v>12</v>
       </c>
       <c r="D16" s="6">
@@ -3313,7 +3848,7 @@
         <v>95</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C23" si="1">SUM(E17:BF17)</f>
+        <f t="shared" ref="C17:C23" si="0">SUM(E17:BF17)</f>
         <v>12</v>
       </c>
       <c r="D17" s="6">
@@ -3345,7 +3880,7 @@
         <v>96</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D18" s="6">
@@ -3378,7 +3913,7 @@
         <v>99</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D19" s="6">
@@ -3408,7 +3943,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="X20">
@@ -3441,7 +3976,7 @@
         <v>97</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D21" s="6">
@@ -3499,7 +4034,7 @@
         <v>98</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="T22" s="13"/>
@@ -3554,7 +4089,7 @@
         <v>103</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.399999999999999</v>
       </c>
       <c r="N23" s="13"/>
